--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Vegfc</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H2">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I2">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J2">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N2">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O2">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P2">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q2">
-        <v>371.2515310969609</v>
+        <v>244.9760654273721</v>
       </c>
       <c r="R2">
-        <v>3341.263779872649</v>
+        <v>2204.784588846349</v>
       </c>
       <c r="S2">
-        <v>0.349371096137921</v>
+        <v>0.3257534246500277</v>
       </c>
       <c r="T2">
-        <v>0.3493710961379211</v>
+        <v>0.3257534246500277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H3">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I3">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J3">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
         <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q3">
-        <v>0.133802181807</v>
+        <v>0.1208044147123333</v>
       </c>
       <c r="R3">
-        <v>1.204219636263</v>
+        <v>1.087239732411</v>
       </c>
       <c r="S3">
-        <v>0.0001259162885751117</v>
+        <v>0.0001606379453304248</v>
       </c>
       <c r="T3">
-        <v>0.0001259162885751117</v>
+        <v>0.0001606379453304248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H4">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I4">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J4">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N4">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q4">
-        <v>11.241044291329</v>
+        <v>8.281980749885333</v>
       </c>
       <c r="R4">
-        <v>101.169398621961</v>
+        <v>74.537826748968</v>
       </c>
       <c r="S4">
-        <v>0.01057853136441565</v>
+        <v>0.01101284563230358</v>
       </c>
       <c r="T4">
-        <v>0.01057853136441565</v>
+        <v>0.01101284563230358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H5">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I5">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J5">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N5">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O5">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P5">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q5">
-        <v>2.118081338182</v>
+        <v>0.1699895902692222</v>
       </c>
       <c r="R5">
-        <v>19.062732043638</v>
+        <v>1.529906312423</v>
       </c>
       <c r="S5">
-        <v>0.001993248072656844</v>
+        <v>0.0002260412301440569</v>
       </c>
       <c r="T5">
-        <v>0.001993248072656844</v>
+        <v>0.000226041230144057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H6">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I6">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J6">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N6">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O6">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P6">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q6">
-        <v>2.204753533141</v>
+        <v>3.372716073191111</v>
       </c>
       <c r="R6">
-        <v>19.842781798269</v>
+        <v>30.35444465872</v>
       </c>
       <c r="S6">
-        <v>0.00207481207232045</v>
+        <v>0.004484821034648877</v>
       </c>
       <c r="T6">
-        <v>0.002074812072320449</v>
+        <v>0.004484821034648877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H7">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I7">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J7">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N7">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q7">
-        <v>16.244459503359</v>
+        <v>11.18175078968767</v>
       </c>
       <c r="R7">
-        <v>146.200135530231</v>
+        <v>100.635757107189</v>
       </c>
       <c r="S7">
-        <v>0.01528706051686115</v>
+        <v>0.01486877343290419</v>
       </c>
       <c r="T7">
-        <v>0.01528706051686115</v>
+        <v>0.01486877343290419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H8">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I8">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J8">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N8">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O8">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P8">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q8">
-        <v>443.0841396759503</v>
+        <v>323.8336656997424</v>
       </c>
       <c r="R8">
-        <v>3987.757257083553</v>
+        <v>2914.502991297682</v>
       </c>
       <c r="S8">
-        <v>0.4169701094632918</v>
+        <v>0.4306131924954842</v>
       </c>
       <c r="T8">
-        <v>0.4169701094632918</v>
+        <v>0.4306131924954842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H9">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I9">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J9">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,16 +995,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N9">
         <v>0.150717</v>
       </c>
       <c r="O9">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P9">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q9">
         <v>0.1596912595553333</v>
@@ -1013,10 +1013,10 @@
         <v>1.437221335998</v>
       </c>
       <c r="S9">
-        <v>0.0001502795429008502</v>
+        <v>0.0002123471719413692</v>
       </c>
       <c r="T9">
-        <v>0.0001502795429008502</v>
+        <v>0.0002123471719413692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H10">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I10">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J10">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N10">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O10">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P10">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q10">
-        <v>13.41604820905622</v>
+        <v>10.94794375446933</v>
       </c>
       <c r="R10">
-        <v>120.744433881506</v>
+        <v>98.531493790224</v>
       </c>
       <c r="S10">
-        <v>0.01262534717308142</v>
+        <v>0.01455787186667661</v>
       </c>
       <c r="T10">
-        <v>0.01262534717308142</v>
+        <v>0.01455787186667661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H11">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I11">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J11">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N11">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O11">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P11">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q11">
-        <v>2.527904045860889</v>
+        <v>0.2247091039348889</v>
       </c>
       <c r="R11">
-        <v>22.751136412748</v>
+        <v>2.022381935414</v>
       </c>
       <c r="S11">
-        <v>0.002378917077659787</v>
+        <v>0.000298803722025369</v>
       </c>
       <c r="T11">
-        <v>0.002378917077659787</v>
+        <v>0.000298803722025369</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H12">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I12">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J12">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N12">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O12">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P12">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q12">
-        <v>2.631346245341555</v>
+        <v>4.458390689884444</v>
       </c>
       <c r="R12">
-        <v>23.682116208074</v>
+        <v>40.12551620896</v>
       </c>
       <c r="S12">
-        <v>0.002476262708835216</v>
+        <v>0.005928481352347585</v>
       </c>
       <c r="T12">
-        <v>0.002476262708835216</v>
+        <v>0.005928481352347585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H13">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I13">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J13">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N13">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O13">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P13">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q13">
-        <v>19.38756277254733</v>
+        <v>14.78114745964467</v>
       </c>
       <c r="R13">
-        <v>174.488064952926</v>
+        <v>133.030327136802</v>
       </c>
       <c r="S13">
-        <v>0.01824491884861363</v>
+        <v>0.01965501975401679</v>
       </c>
       <c r="T13">
-        <v>0.01824491884861363</v>
+        <v>0.01965501975401679</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H14">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I14">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J14">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N14">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O14">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P14">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q14">
-        <v>164.1079972748835</v>
+        <v>114.6792451639823</v>
       </c>
       <c r="R14">
-        <v>1476.971975473952</v>
+        <v>1032.113206475841</v>
       </c>
       <c r="S14">
-        <v>0.1544359715460696</v>
+        <v>0.1524930885932717</v>
       </c>
       <c r="T14">
-        <v>0.1544359715460696</v>
+        <v>0.1524930885932717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H15">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I15">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J15">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N15">
         <v>0.150717</v>
       </c>
       <c r="O15">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P15">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q15">
-        <v>0.05914590580266667</v>
+        <v>0.056551480111</v>
       </c>
       <c r="R15">
-        <v>0.5323131522240001</v>
+        <v>0.508963320999</v>
       </c>
       <c r="S15">
-        <v>5.566002618572644E-05</v>
+        <v>7.519852310081164E-05</v>
       </c>
       <c r="T15">
-        <v>5.566002618572643E-05</v>
+        <v>7.519852310081163E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H16">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I16">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J16">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N16">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O16">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P16">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q16">
-        <v>4.968990324369778</v>
+        <v>3.876996306568</v>
       </c>
       <c r="R16">
-        <v>44.720912919328</v>
+        <v>34.89296675911201</v>
       </c>
       <c r="S16">
-        <v>0.004676133162856615</v>
+        <v>0.005155380473666965</v>
       </c>
       <c r="T16">
-        <v>0.004676133162856615</v>
+        <v>0.005155380473666964</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H17">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I17">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J17">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N17">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O17">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P17">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q17">
-        <v>0.9362765062471112</v>
+        <v>0.07957625518966668</v>
       </c>
       <c r="R17">
-        <v>8.426488556224001</v>
+        <v>0.7161862967070002</v>
       </c>
       <c r="S17">
-        <v>0.0008810952194842383</v>
+        <v>0.0001058153889590639</v>
       </c>
       <c r="T17">
-        <v>0.0008810952194842381</v>
+        <v>0.0001058153889590639</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H18">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I18">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J18">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N18">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O18">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P18">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q18">
-        <v>0.9745890764124444</v>
+        <v>1.578850296053333</v>
       </c>
       <c r="R18">
-        <v>8.771301687712</v>
+        <v>14.20965266448</v>
       </c>
       <c r="S18">
-        <v>0.0009171497634075269</v>
+        <v>0.002099453634590121</v>
       </c>
       <c r="T18">
-        <v>0.0009171497634075266</v>
+        <v>0.002099453634590121</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H19">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I19">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J19">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N19">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O19">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P19">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q19">
-        <v>7.180699586698667</v>
+        <v>5.234449079489002</v>
       </c>
       <c r="R19">
-        <v>64.626296280288</v>
+        <v>47.11004171540101</v>
       </c>
       <c r="S19">
-        <v>0.006757491014863498</v>
+        <v>0.006960433913513275</v>
       </c>
       <c r="T19">
-        <v>0.006757491014863496</v>
+        <v>0.006960433913513273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.10802</v>
+      </c>
+      <c r="I20">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J20">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>101.8783343333333</v>
+      </c>
+      <c r="N20">
+        <v>305.635003</v>
+      </c>
+      <c r="O20">
+        <v>0.9137375742483709</v>
+      </c>
+      <c r="P20">
+        <v>0.913737574248371</v>
+      </c>
+      <c r="Q20">
+        <v>3.668299224895555</v>
+      </c>
+      <c r="R20">
+        <v>33.01469302406</v>
+      </c>
+      <c r="S20">
+        <v>0.004877868509587271</v>
+      </c>
+      <c r="T20">
+        <v>0.004877868509587271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.10802</v>
+      </c>
+      <c r="I21">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J21">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.050239</v>
+      </c>
+      <c r="N21">
+        <v>0.150717</v>
+      </c>
+      <c r="O21">
+        <v>0.0004505890510780002</v>
+      </c>
+      <c r="P21">
+        <v>0.0004505890510780002</v>
+      </c>
+      <c r="Q21">
+        <v>0.001808938926666667</v>
+      </c>
+      <c r="R21">
+        <v>0.01628045034</v>
+      </c>
+      <c r="S21">
+        <v>2.40541070539445E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.40541070539445E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.10802</v>
+      </c>
+      <c r="I22">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J22">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.444232</v>
+      </c>
+      <c r="N22">
+        <v>10.332696</v>
+      </c>
+      <c r="O22">
+        <v>0.03089100556484967</v>
+      </c>
+      <c r="P22">
+        <v>0.03089100556484967</v>
+      </c>
+      <c r="Q22">
+        <v>0.1240153135466667</v>
+      </c>
+      <c r="R22">
+        <v>1.11613782192</v>
+      </c>
+      <c r="S22">
+        <v>0.0001649075922025147</v>
+      </c>
+      <c r="T22">
+        <v>0.0001649075922025147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.10802</v>
+      </c>
+      <c r="I23">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J23">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.07069366666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.212081</v>
+      </c>
+      <c r="O23">
+        <v>0.0006340451079949399</v>
+      </c>
+      <c r="P23">
+        <v>0.00063404510799494</v>
+      </c>
+      <c r="Q23">
+        <v>0.002545443291111111</v>
+      </c>
+      <c r="R23">
+        <v>0.02290898962</v>
+      </c>
+      <c r="S23">
+        <v>3.384766866450104E-06</v>
+      </c>
+      <c r="T23">
+        <v>3.384766866450104E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.10802</v>
+      </c>
+      <c r="I24">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J24">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.402613333333333</v>
+      </c>
+      <c r="N24">
+        <v>4.20784</v>
+      </c>
+      <c r="O24">
+        <v>0.01257991223742545</v>
+      </c>
+      <c r="P24">
+        <v>0.01257991223742545</v>
+      </c>
+      <c r="Q24">
+        <v>0.05050343075555555</v>
+      </c>
+      <c r="R24">
+        <v>0.4545308768</v>
+      </c>
+      <c r="S24">
+        <v>6.715621583887008E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.715621583887007E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.10802</v>
+      </c>
+      <c r="I25">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J25">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.650161000000001</v>
+      </c>
+      <c r="N25">
+        <v>13.950483</v>
+      </c>
+      <c r="O25">
+        <v>0.04170687379028095</v>
+      </c>
+      <c r="P25">
+        <v>0.04170687379028095</v>
+      </c>
+      <c r="Q25">
+        <v>0.1674367970733334</v>
+      </c>
+      <c r="R25">
+        <v>1.50693117366</v>
+      </c>
+      <c r="S25">
+        <v>0.0002226466898466881</v>
+      </c>
+      <c r="T25">
+        <v>0.0002226466898466881</v>
       </c>
     </row>
   </sheetData>
